--- a/SHCourseGroupCodeAdmin/Template/課程規劃表開課檢核樣版.xlsx
+++ b/SHCourseGroupCodeAdmin/Template/課程規劃表開課檢核樣版.xlsx
@@ -9,13 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="644"/>
   </bookViews>
   <sheets>
-    <sheet name="檢查課程規劃與採用班級群科班" sheetId="1" r:id="rId1"/>
-    <sheet name="檢查課程規劃與採用班級群科班(有差異)" sheetId="2" r:id="rId2"/>
-    <sheet name="檢查課程課程代碼_依所屬班級" sheetId="3" r:id="rId3"/>
-    <sheet name="檢查課程課程代碼_依所屬班級(有差異)" sheetId="4" r:id="rId4"/>
+    <sheet name="檢查依課程代碼表開課" sheetId="5" r:id="rId1"/>
+    <sheet name="檢查依課程代碼表開課(有差異)" sheetId="6" r:id="rId2"/>
+    <sheet name="檢查課程規劃與採用班級群科班" sheetId="1" r:id="rId3"/>
+    <sheet name="檢查課程規劃與採用班級群科班(有差異)" sheetId="2" r:id="rId4"/>
+    <sheet name="檢查課程課程代碼_依所屬班級" sheetId="3" r:id="rId5"/>
+    <sheet name="檢查課程課程代碼_依所屬班級(有差異)" sheetId="4" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,8 +28,1136 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ChunTai Chen</author>
+  </authors>
+  <commentList>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>開課方式：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">未開課
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">原班級
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨班選修</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>班群開課</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">綜高跨年級選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同科單班選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">B </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同科跨班選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">C </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>同群跨科選修</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>技術型、進修部適用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+C </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨學程</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>綜高適用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+D </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同校跨群選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨校選修</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ChunTai Chen</author>
+  </authors>
+  <commentList>
+    <comment ref="K1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>開課方式：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">未開課
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">原班級
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨班選修</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>班群開課</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">綜高跨年級選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同科單班選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">B </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同科跨班選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">C </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>同群跨科選修</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>技術型、進修部適用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+C </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨學程</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>綜高適用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+D </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同校跨群選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨校選修</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ChunTai Chen</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>開課方式：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">未開課
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">原班級
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨班選修</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>班群開課</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">綜高跨年級選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同科單班選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">B </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同科跨班選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">C </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>同群跨科選修</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>技術型、進修部適用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+C </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨學程</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>綜高適用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+D </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同校跨群選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨校選修</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>ChunTai Chen</author>
+  </authors>
+  <commentList>
+    <comment ref="L1" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>開課方式：</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+- </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">未開課
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">0 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">原班級
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">1 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨班選修</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>班群開課</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+2 </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">綜高跨年級選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">A </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同科單班選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">B </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同科跨班選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">C </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>同群跨科選修</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>(</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>技術型、進修部適用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+C </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨學程</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve"> (</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>綜高適用</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">)
+D </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t xml:space="preserve">同校跨群選修
+</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">E </t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="細明體"/>
+            <family val="3"/>
+            <charset val="136"/>
+          </rPr>
+          <t>跨校選修</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="23">
   <si>
     <t>課程規劃表名稱</t>
   </si>
@@ -88,13 +1218,25 @@
   </si>
   <si>
     <t>說明</t>
+  </si>
+  <si>
+    <t>開課方式</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>年級</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -109,6 +1251,27 @@
       <family val="2"/>
       <charset val="136"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="細明體"/>
+      <family val="3"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -419,10 +1582,128 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:L1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="M1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
@@ -462,7 +1743,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G1"/>
   <sheetViews>
@@ -509,18 +1790,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L1"/>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="M1" sqref="A1:M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="8" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="7.5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="9.5" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -555,18 +1846,22 @@
         <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M1"/>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -575,10 +1870,10 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
@@ -613,14 +1908,18 @@
         <v>17</v>
       </c>
       <c r="L1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="M1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>